--- a/doc/excel/统战/[sample_dp_party]民主党派录入样表.xlsx
+++ b/doc/excel/统战/[sample_dp_party]民主党派录入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目相关\功能\民主党派需求与功能\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\统战\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA4C2F-0353-44A6-B813-A32F0B0032E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964022D2-0594-48DA-9264-986D247AA718}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3030" windowWidth="26685" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,9 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
